--- a/ForwardCurveFuelPrices.xlsx
+++ b/ForwardCurveFuelPrices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roozbeh.qorbanian/PycharmProjects/FuelPriceScenarioGenerator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roozbeh.qorbanian/Google Drive/github/FuelPriceScenarioGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E9C784-C77C-CB4C-A502-B52E08C4C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25F5D7-88DB-C744-A2D8-258A719808C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38920" yWindow="2040" windowWidth="29040" windowHeight="15840" xr2:uid="{11C3DBFC-B3A8-5A46-B426-9386B9ECC131}"/>
   </bookViews>
@@ -104,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -144,7 +144,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -250,7 +250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF04B308-DB50-8545-9845-3E06D9EBF4F7}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1660,6 +1660,20 @@
         <v>113.8614</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>47849</v>
+      </c>
+      <c r="B90">
+        <v>40.806100000000001</v>
+      </c>
+      <c r="C90">
+        <v>112.4761</v>
+      </c>
+      <c r="D90">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
